--- a/计划表_学习计划表.xlsx
+++ b/计划表_学习计划表.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E641E6-8641-43BF-8EA1-E622C0572BC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1826DF3-05CB-47FB-AF98-6F49BA145499}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="目前阶段学习概要" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>后期计划</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -39,6 +40,87 @@
   </si>
   <si>
     <t>中间间zooker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前阶段学习概要</t>
+  </si>
+  <si>
+    <t>下一步：学习Java高级知识点。</t>
+  </si>
+  <si>
+    <t>1、多线程(JavaGUuide/Java相关/多线程)</t>
+  </si>
+  <si>
+    <t>3、内存、垃圾回收机制</t>
+  </si>
+  <si>
+    <t>4、虚拟机JVM(书籍)</t>
+  </si>
+  <si>
+    <t>5、设计模式</t>
+  </si>
+  <si>
+    <t>6、IO与NIO</t>
+  </si>
+  <si>
+    <t>互补原则下的学习：深入学习Java后端开发技术（以及涉及到的前端）</t>
+  </si>
+  <si>
+    <t>Spring源码（Spring官网）</t>
+  </si>
+  <si>
+    <t>MyBatis</t>
+  </si>
+  <si>
+    <t>MySql(JavaGuide/数据存储/MySQL.md)</t>
+  </si>
+  <si>
+    <t>分布式技术相关：</t>
+  </si>
+  <si>
+    <t>1、Zookper（JavaGuide/主流框架/）</t>
+  </si>
+  <si>
+    <t>2、Redis(JavaGuide/数据存储/Redis/)</t>
+  </si>
+  <si>
+    <t>深入：</t>
+  </si>
+  <si>
+    <t>大型网站技术架构（JavaGuide/架构/8 张图读懂大型网站技术架构.md）</t>
+  </si>
+  <si>
+    <t>后期：</t>
+  </si>
+  <si>
+    <t>1、elasticsearch系统学习(官网)</t>
+  </si>
+  <si>
+    <t>2、linux深入</t>
+  </si>
+  <si>
+    <t>目前学习状态：看java官方文档。构建java基础知识体系。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习原则：就近原则(新技术)，互补原则(对目前技术来说掌握得更全)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、基本理论：JavaGuide/架构/分布式.md</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、MQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、集合框架源码(JavaGUuide/Java相关/..)  ArrayList、LinkedList、HashMap等（最好自己撸一个数据结构）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、Dubbo（JavaGuide/计算机网络与数据通信/dubbo.md）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +174,24 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +208,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -157,27 +260,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3 2" xfId="1" xr:uid="{2697A0B7-B050-47A8-960E-90A3814640AA}"/>
     <cellStyle name="常规 8" xfId="2" xr:uid="{55B9CDF2-2C1B-4379-91D0-C0AE4CB0A9FA}"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,15 +310,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>27886</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104198</xdr:rowOff>
+      <xdr:colOff>62293</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8947</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -228,8 +341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="771525"/>
-          <a:ext cx="5514286" cy="4619048"/>
+          <a:off x="57150" y="1238250"/>
+          <a:ext cx="5491543" cy="4599997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,11 +619,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -534,11 +650,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -550,4 +666,151 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35255CE6-B7B4-448D-8F9C-EDFAD7CAF246}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>